--- a/storage/imports/availabilities.xlsx
+++ b/storage/imports/availabilities.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
   <si>
     <t>object_id</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>owner_id</t>
   </si>
   <si>
     <t>Merchant</t>
@@ -88,21 +91,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -337,22 +337,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -360,18 +366,22 @@
         <f t="shared" ref="A3:B3" si="1">A2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Merchant</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F31" si="3">F2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -379,1091 +389,1322 @@
         <f t="shared" ref="A4:B4" si="2">A3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Merchant</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:B5" si="3">A4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A5:B5" si="4">A4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Merchant</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:B6" si="4">A5</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A6:B6" si="5">A5</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>Merchant</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:B7" si="5">A6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A7:B7" si="6">A6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="6"/>
         <v>Merchant</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:B8" si="6">A7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A8:B8" si="7">A7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Merchant</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:B9" si="7">A8</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A9:B9" si="8">A8</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>Merchant</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:B10" si="8">A9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A10:B10" si="9">A9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Merchant</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <f t="shared" ref="A11:B11" si="9">A10</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A11:B11" si="10">A10</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Merchant</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <f t="shared" ref="A13:B13" si="10">A12</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A13:B13" si="11">A12</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>Merchant</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:B14" si="11">A13</f>
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A14:B14" si="12">A13</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="12"/>
         <v>Merchant</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <f t="shared" ref="A15:B15" si="12">A14</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A15:B15" si="13">A14</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>Merchant</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <f t="shared" ref="A16:B16" si="13">A15</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A16:B16" si="14">A15</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>Merchant</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:B17" si="14">A16</f>
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A17:B17" si="15">A16</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="15"/>
         <v>Merchant</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <f t="shared" ref="A18:B18" si="15">A17</f>
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A18:B18" si="16">A17</f>
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="16"/>
         <v>Merchant</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:B19" si="16">A18</f>
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A19:B19" si="17">A18</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="17"/>
         <v>Merchant</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:B20" si="17">A19</f>
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A20:B20" si="18">A19</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="18"/>
         <v>Merchant</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:B21" si="18">A20</f>
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A21:B21" si="19">A20</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>Merchant</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <f t="shared" ref="A23:B23" si="19">A22</f>
+        <f t="shared" ref="A23:B23" si="20">A22</f>
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>Merchant</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <f t="shared" ref="A24:B24" si="20">A23</f>
+        <f t="shared" ref="A24:B24" si="21">A23</f>
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="20"/>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="21"/>
         <v>Merchant</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <f t="shared" ref="A25:B25" si="21">A24</f>
+        <f t="shared" ref="A25:B25" si="22">A24</f>
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="22"/>
         <v>Merchant</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <f t="shared" ref="A26:B26" si="22">A25</f>
+        <f t="shared" ref="A26:B26" si="23">A25</f>
         <v>3</v>
       </c>
-      <c r="B26" s="4" t="str">
-        <f t="shared" si="22"/>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="23"/>
         <v>Merchant</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <f t="shared" ref="A27:B27" si="23">A26</f>
+        <f t="shared" ref="A27:B27" si="24">A26</f>
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="str">
-        <f t="shared" si="23"/>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="24"/>
         <v>Merchant</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <f t="shared" ref="A28:B28" si="24">A27</f>
+        <f t="shared" ref="A28:B28" si="25">A27</f>
         <v>3</v>
       </c>
-      <c r="B28" s="4" t="str">
-        <f t="shared" si="24"/>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="25"/>
         <v>Merchant</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <f t="shared" ref="A29:B29" si="25">A28</f>
+        <f t="shared" ref="A29:B29" si="26">A28</f>
         <v>3</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="25"/>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Merchant</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <f t="shared" ref="A30:B30" si="26">A29</f>
+        <f t="shared" ref="A30:B30" si="27">A29</f>
         <v>3</v>
       </c>
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="26"/>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Merchant</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <f t="shared" ref="A31:B31" si="27">A30</f>
+        <f t="shared" ref="A31:B31" si="28">A30</f>
         <v>3</v>
       </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="27"/>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>Merchant</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>4.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <f t="shared" ref="A33:B33" si="28">A32</f>
+        <f t="shared" ref="A33:B33" si="29">A32</f>
         <v>4</v>
       </c>
-      <c r="B33" s="4" t="str">
-        <f t="shared" si="28"/>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>Merchant</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ref="F33:F61" si="31">F32</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <f t="shared" ref="A34:B34" si="29">A33</f>
+        <f t="shared" ref="A34:B34" si="30">A33</f>
         <v>4</v>
       </c>
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="29"/>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="30"/>
         <v>Merchant</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <f t="shared" ref="A35:B35" si="30">A34</f>
+        <f t="shared" ref="A35:B35" si="32">A34</f>
         <v>4</v>
       </c>
-      <c r="B35" s="4" t="str">
-        <f t="shared" si="30"/>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="32"/>
         <v>Merchant</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <f t="shared" ref="A36:B36" si="31">A35</f>
+        <f t="shared" ref="A36:B36" si="33">A35</f>
         <v>4</v>
       </c>
-      <c r="B36" s="4" t="str">
-        <f t="shared" si="31"/>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>Merchant</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <f t="shared" ref="A37:B37" si="32">A36</f>
+        <f t="shared" ref="A37:B37" si="34">A36</f>
         <v>4</v>
       </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="32"/>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>Merchant</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <f t="shared" ref="A38:B38" si="33">A37</f>
+        <f t="shared" ref="A38:B38" si="35">A37</f>
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="33"/>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="35"/>
         <v>Merchant</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <f t="shared" ref="A39:B39" si="34">A38</f>
+        <f t="shared" ref="A39:B39" si="36">A38</f>
         <v>4</v>
       </c>
-      <c r="B39" s="4" t="str">
-        <f t="shared" si="34"/>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="36"/>
         <v>Merchant</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <f t="shared" ref="A40:B40" si="35">A39</f>
+        <f t="shared" ref="A40:B40" si="37">A39</f>
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="str">
-        <f t="shared" si="35"/>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="37"/>
         <v>Merchant</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <f t="shared" ref="A41:B41" si="36">A40</f>
+        <f t="shared" ref="A41:B41" si="38">A40</f>
         <v>4</v>
       </c>
-      <c r="B41" s="4" t="str">
-        <f t="shared" si="36"/>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="38"/>
         <v>Merchant</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>5.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <f t="shared" ref="A43:B43" si="37">A42</f>
+        <f t="shared" ref="A43:B43" si="39">A42</f>
         <v>5</v>
       </c>
-      <c r="B43" s="4" t="str">
-        <f t="shared" si="37"/>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="39"/>
         <v>Merchant</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <f t="shared" ref="A44:B44" si="38">A43</f>
+        <f t="shared" ref="A44:B44" si="40">A43</f>
         <v>5</v>
       </c>
-      <c r="B44" s="4" t="str">
-        <f t="shared" si="38"/>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="40"/>
         <v>Merchant</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <f t="shared" ref="A45:B45" si="39">A44</f>
+        <f t="shared" ref="A45:B45" si="41">A44</f>
         <v>5</v>
       </c>
-      <c r="B45" s="4" t="str">
-        <f t="shared" si="39"/>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="41"/>
         <v>Merchant</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <f t="shared" ref="A46:B46" si="40">A45</f>
+        <f t="shared" ref="A46:B46" si="42">A45</f>
         <v>5</v>
       </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" si="40"/>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>Merchant</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <f t="shared" ref="A47:B47" si="41">A46</f>
+        <f t="shared" ref="A47:B47" si="43">A46</f>
         <v>5</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f t="shared" si="41"/>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>Merchant</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <f t="shared" ref="A48:B48" si="42">A47</f>
+        <f t="shared" ref="A48:B48" si="44">A47</f>
         <v>5</v>
       </c>
-      <c r="B48" s="4" t="str">
-        <f t="shared" si="42"/>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="44"/>
         <v>Merchant</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <f t="shared" ref="A49:B49" si="43">A48</f>
+        <f t="shared" ref="A49:B49" si="45">A48</f>
         <v>5</v>
       </c>
-      <c r="B49" s="4" t="str">
-        <f t="shared" si="43"/>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="45"/>
         <v>Merchant</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <f t="shared" ref="A50:B50" si="44">A49</f>
+        <f t="shared" ref="A50:B50" si="46">A49</f>
         <v>5</v>
       </c>
-      <c r="B50" s="4" t="str">
-        <f t="shared" si="44"/>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="46"/>
         <v>Merchant</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <f t="shared" ref="A51:B51" si="45">A50</f>
+        <f t="shared" ref="A51:B51" si="47">A50</f>
         <v>5</v>
       </c>
-      <c r="B51" s="4" t="str">
-        <f t="shared" si="45"/>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="47"/>
         <v>Merchant</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>6.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>8</v>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <f t="shared" ref="A53:B53" si="46">A52</f>
+        <f t="shared" ref="A53:B53" si="48">A52</f>
         <v>6</v>
       </c>
-      <c r="B53" s="4" t="str">
-        <f t="shared" si="46"/>
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="48"/>
         <v>Merchant</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <f t="shared" ref="A54:B54" si="47">A53</f>
+        <f t="shared" ref="A54:B54" si="49">A53</f>
         <v>6</v>
       </c>
-      <c r="B54" s="4" t="str">
-        <f t="shared" si="47"/>
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="49"/>
         <v>Merchant</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <f t="shared" ref="A55:B55" si="48">A54</f>
+        <f t="shared" ref="A55:B55" si="50">A54</f>
         <v>6</v>
       </c>
-      <c r="B55" s="4" t="str">
-        <f t="shared" si="48"/>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="50"/>
         <v>Merchant</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <f t="shared" ref="A56:B56" si="49">A55</f>
+        <f t="shared" ref="A56:B56" si="51">A55</f>
         <v>6</v>
       </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" si="49"/>
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="51"/>
         <v>Merchant</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <f t="shared" ref="A57:B57" si="50">A56</f>
+        <f t="shared" ref="A57:B57" si="52">A56</f>
         <v>6</v>
       </c>
-      <c r="B57" s="4" t="str">
-        <f t="shared" si="50"/>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="52"/>
         <v>Merchant</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <f t="shared" ref="A58:B58" si="51">A57</f>
+        <f t="shared" ref="A58:B58" si="53">A57</f>
         <v>6</v>
       </c>
-      <c r="B58" s="4" t="str">
-        <f t="shared" si="51"/>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="53"/>
         <v>Merchant</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <f t="shared" ref="A59:B59" si="52">A58</f>
+        <f t="shared" ref="A59:B59" si="54">A58</f>
         <v>6</v>
       </c>
-      <c r="B59" s="4" t="str">
-        <f t="shared" si="52"/>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="54"/>
         <v>Merchant</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <f t="shared" ref="A60:B60" si="53">A59</f>
+        <f t="shared" ref="A60:B60" si="55">A59</f>
         <v>6</v>
       </c>
-      <c r="B60" s="4" t="str">
-        <f t="shared" si="53"/>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="55"/>
         <v>Merchant</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <f t="shared" ref="A61:B61" si="54">A60</f>
+        <f t="shared" ref="A61:B61" si="56">A60</f>
         <v>6</v>
       </c>
-      <c r="B61" s="4" t="str">
-        <f t="shared" si="54"/>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="56"/>
         <v>Merchant</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/storage/imports/availabilities.xlsx
+++ b/storage/imports/availabilities.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="16">
   <si>
     <t>object_id</t>
   </si>
@@ -102,7 +102,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1040,7 @@
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" ref="F33:F61" si="31">F32</f>
+        <f t="shared" ref="F33:F41" si="31">F32</f>
         <v>2</v>
       </c>
     </row>
@@ -1252,460 +1252,84 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <f t="shared" ref="A43:B43" si="39">A42</f>
-        <v>5</v>
-      </c>
-      <c r="B43" s="3" t="str">
-        <f t="shared" si="39"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <f t="shared" ref="A44:B44" si="40">A43</f>
-        <v>5</v>
-      </c>
-      <c r="B44" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <f t="shared" ref="A45:B45" si="41">A44</f>
-        <v>5</v>
-      </c>
-      <c r="B45" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <f t="shared" ref="A46:B46" si="42">A45</f>
-        <v>5</v>
-      </c>
-      <c r="B46" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <f t="shared" ref="A47:B47" si="43">A46</f>
-        <v>5</v>
-      </c>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <f t="shared" ref="A48:B48" si="44">A47</f>
-        <v>5</v>
-      </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <f t="shared" ref="A49:B49" si="45">A48</f>
-        <v>5</v>
-      </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <f t="shared" ref="A50:B50" si="46">A49</f>
-        <v>5</v>
-      </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <f t="shared" ref="A51:B51" si="47">A50</f>
-        <v>5</v>
-      </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <f t="shared" ref="A53:B53" si="48">A52</f>
-        <v>6</v>
-      </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <f t="shared" ref="A54:B54" si="49">A53</f>
-        <v>6</v>
-      </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <f t="shared" ref="A55:B55" si="50">A54</f>
-        <v>6</v>
-      </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="50"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <f t="shared" ref="A56:B56" si="51">A55</f>
-        <v>6</v>
-      </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <f t="shared" ref="A57:B57" si="52">A56</f>
-        <v>6</v>
-      </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="52"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <f t="shared" ref="A58:B58" si="53">A57</f>
-        <v>6</v>
-      </c>
-      <c r="B58" s="3" t="str">
-        <f t="shared" si="53"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <f t="shared" ref="A59:B59" si="54">A58</f>
-        <v>6</v>
-      </c>
-      <c r="B59" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <f t="shared" ref="A60:B60" si="55">A59</f>
-        <v>6</v>
-      </c>
-      <c r="B60" s="3" t="str">
-        <f t="shared" si="55"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <f t="shared" ref="A61:B61" si="56">A60</f>
-        <v>6</v>
-      </c>
-      <c r="B61" s="3" t="str">
-        <f t="shared" si="56"/>
-        <v>Merchant</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
